--- a/source1.xlsx
+++ b/source1.xlsx
@@ -19818,8 +19818,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{EB2BB8EC-159A-4112-A4E5-49AB2645878A}" name="Арибжанова Динара Максудовна" id="-1355108507" dateTime="2022-10-13T13:04:26"/>
+  <userInfo guid="{8F925BA6-35CA-4F7C-B818-48E39AFB56E5}" name="lul" id="-870017568" dateTime="2022-11-03T00:45:13"/>
 </users>
 </file>
 

--- a/source1.xlsx
+++ b/source1.xlsx
@@ -4498,8 +4498,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4509,8 +4508,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4520,8 +4518,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4531,8 +4528,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6116,8 +6112,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6127,8 +6122,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6138,8 +6132,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6149,8 +6142,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8168,8 +8160,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8179,8 +8170,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8190,8 +8180,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8201,8 +8190,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9434,8 +9422,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9445,8 +9432,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9456,8 +9442,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9467,8 +9452,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10404,8 +10388,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10415,8 +10398,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10426,8 +10408,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10437,8 +10418,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -12332,8 +12312,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -12343,8 +12322,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -12354,8 +12332,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -12365,8 +12342,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -12880,8 +12856,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Коготкова Ирина Захаровна
@@ -12892,8 +12867,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Коготкова Ирина Захаровна
@@ -13276,8 +13250,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13287,8 +13260,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13298,8 +13270,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13309,8 +13280,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13721,8 +13691,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13732,8 +13701,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13743,8 +13711,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13754,8 +13721,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -14429,8 +14395,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Зяблов Андрей Александрович
@@ -14441,8 +14406,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Зяблов Андрей Александрович
@@ -14453,8 +14417,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Зяблов Андрей Александрович
@@ -14465,8 +14428,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Зяблов Андрей Александрович
